--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_arg.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_arg.xlsx
@@ -1336,7 +1336,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
@@ -2461,7 +2461,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -2763,7 +2763,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -3065,7 +3065,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
@@ -4779,7 +4779,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="3:4">
       <c r="C1" s="1" t="s">
@@ -6228,7 +6228,7 @@
         <v>0.001147446576</v>
       </c>
       <c r="D104">
-        <v>0.02282473068</v>
+        <v>0.000996572747999996</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6326,7 +6326,7 @@
         <v>0.001131830208</v>
       </c>
       <c r="D111">
-        <v>0.02257452384</v>
+        <v>0.000985648223999996</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6424,7 +6424,7 @@
         <v>0.00111621384</v>
       </c>
       <c r="D118">
-        <v>0.022324317</v>
+        <v>0.000974723699999996</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6522,7 +6522,7 @@
         <v>0.001111585536</v>
       </c>
       <c r="D125">
-        <v>0.0223232094</v>
+        <v>0.000974675339999996</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6620,7 +6620,7 @@
         <v>0.001106957232</v>
       </c>
       <c r="D132">
-        <v>0.0223221018</v>
+        <v>0.000974626979999996</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6718,7 +6718,7 @@
         <v>0.001102328928</v>
       </c>
       <c r="D139">
-        <v>0.0223209942</v>
+        <v>0.000974578619999996</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6816,7 +6816,7 @@
         <v>0.001097700624</v>
       </c>
       <c r="D146">
-        <v>0.0223198866</v>
+        <v>0.000974530259999996</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>0.00109307232</v>
       </c>
       <c r="D153">
-        <v>0.022318779</v>
+        <v>0.000974481899999996</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7012,7 +7012,7 @@
         <v>0.001058528592</v>
       </c>
       <c r="D160">
-        <v>0.02171621336</v>
+        <v>0.000948172695999996</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7110,7 +7110,7 @@
         <v>0.001023984864</v>
       </c>
       <c r="D167">
-        <v>0.02111364772</v>
+        <v>0.000921863491999996</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>0.00120931694400001</v>
       </c>
       <c r="D174">
-        <v>-0.004853326464</v>
+        <v>0.00118444276800001</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7306,7 +7306,7 @@
         <v>0.00116709683200001</v>
       </c>
       <c r="D181">
-        <v>-0.004710747552</v>
+        <v>0.00114964672400001</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>0.00112487672000001</v>
       </c>
       <c r="D188">
-        <v>-0.00456816864</v>
+        <v>0.00111485068000001</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>0.00109411192000001</v>
       </c>
       <c r="D195">
-        <v>-0.004459766976</v>
+        <v>0.00108839551200001</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7600,7 +7600,7 @@
         <v>0.00106334712000001</v>
       </c>
       <c r="D202">
-        <v>-0.004351365312</v>
+        <v>0.00106194034400001</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7698,7 +7698,7 @@
         <v>0.00103258232000001</v>
       </c>
       <c r="D209">
-        <v>-0.004242963648</v>
+        <v>0.00103548517600001</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7796,7 +7796,7 @@
         <v>0.00100181752000001</v>
       </c>
       <c r="D216">
-        <v>-0.004134561984</v>
+        <v>0.00100903000800001</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7894,7 +7894,7 @@
         <v>0.000971052720000011</v>
       </c>
       <c r="D223">
-        <v>-0.00402616032</v>
+        <v>0.000982574840000009</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7992,7 +7992,7 @@
         <v>0.000953439344000011</v>
       </c>
       <c r="D230">
-        <v>-0.003973444608</v>
+        <v>0.000969709696000009</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>0.00093582596800001</v>
       </c>
       <c r="D237">
-        <v>-0.003920728896</v>
+        <v>0.000956844552000009</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8188,7 +8188,7 @@
         <v>0.001106028804</v>
       </c>
       <c r="D244">
-        <v>-0.023668556864</v>
+        <v>0.001128170512</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8286,7 +8286,7 @@
         <v>0.001084812692</v>
       </c>
       <c r="D251">
-        <v>-0.023345986912</v>
+        <v>0.001112795096</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8384,7 +8384,7 @@
         <v>0.00106359658</v>
       </c>
       <c r="D258">
-        <v>-0.02302341696</v>
+        <v>0.00109741968</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -8482,7 +8482,7 @@
         <v>0.001036815044</v>
       </c>
       <c r="D265">
-        <v>-0.022558152384</v>
+        <v>0.001075242672</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8580,7 +8580,7 @@
         <v>0.001010033508</v>
       </c>
       <c r="D272">
-        <v>-0.022092887808</v>
+        <v>0.001053065664</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -8678,7 +8678,7 @@
         <v>0.000983251972000002</v>
       </c>
       <c r="D279">
-        <v>-0.021627623232</v>
+        <v>0.001030888656</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8776,7 +8776,7 @@
         <v>0.000956470436000002</v>
       </c>
       <c r="D286">
-        <v>-0.021162358656</v>
+        <v>0.001008711648</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8874,7 +8874,7 @@
         <v>0.000929688900000002</v>
       </c>
       <c r="D293">
-        <v>-0.02069709408</v>
+        <v>0.000986534640000004</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>0.000901850332000002</v>
       </c>
       <c r="D300">
-        <v>-0.02025542416</v>
+        <v>0.000965482280000004</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9070,7 +9070,7 @@
         <v>0.000874011764000002</v>
       </c>
       <c r="D307">
-        <v>-0.01981375424</v>
+        <v>0.000944429920000004</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -9168,7 +9168,7 @@
         <v>0.000846173196000002</v>
       </c>
       <c r="D314">
-        <v>-0.01937208432</v>
+        <v>0.000923377560000004</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -9256,7 +9256,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9272,7 +9272,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_arg.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_arg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="123">
   <si>
     <t>male</t>
   </si>
@@ -9250,14 +9250,210 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.376799063321304</v>
+      </c>
+      <c r="C2">
+        <v>0.363098589278724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.37622959934274</v>
+      </c>
+      <c r="C3">
+        <v>0.36259922788128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.373923065099844</v>
+      </c>
+      <c r="C4">
+        <v>0.360422582568516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.371616530856948</v>
+      </c>
+      <c r="C5">
+        <v>0.358245937255752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.369309996614052</v>
+      </c>
+      <c r="C6">
+        <v>0.356069291942988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.367003462371156</v>
+      </c>
+      <c r="C7">
+        <v>0.353892646630224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.36391719422646</v>
+      </c>
+      <c r="C8">
+        <v>0.3487800287966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.362666749976688</v>
+      </c>
+      <c r="C9">
+        <v>0.34773916379756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.361416305726916</v>
+      </c>
+      <c r="C10">
+        <v>0.34669829879852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.309666987090648</v>
+      </c>
+      <c r="C11">
+        <v>0.326896685568684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.308591867694924</v>
+      </c>
+      <c r="C12">
+        <v>0.325912314092652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.3075167482992</v>
+      </c>
+      <c r="C13">
+        <v>0.32492794261662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.34216068404</v>
+      </c>
+      <c r="C14">
+        <v>0.33114861754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.34074718408</v>
+      </c>
+      <c r="C15">
+        <v>0.33019060498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.33933368412</v>
+      </c>
+      <c r="C16">
+        <v>0.32923259242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.33792018416</v>
+      </c>
+      <c r="C17">
+        <v>0.32827457986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.3365066842</v>
+      </c>
+      <c r="C18">
+        <v>0.3273165673</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
